--- a/Backend/applications.xlsx
+++ b/Backend/applications.xlsx
@@ -1,47 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YAR_REACT_js\Backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6024" activeTab="1"/>
-  </bookViews>
   <sheets>
     <sheet name="Job_Applications" sheetId="1" r:id="rId1"/>
     <sheet name="Intern_Applications" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Resume</t>
-  </si>
-  <si>
-    <t>Cover Letter</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,14 +73,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -410,79 +397,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Resume</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Cover Letter</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Manoj</v>
+      </c>
+      <c r="B11" t="str">
+        <v>manojkumar.cb22@bitsathy.ac.in</v>
+      </c>
+      <c r="C11" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="D11" t="str">
+        <v>hello</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Manoj</v>
+      </c>
+      <c r="B12" t="str">
+        <v>manojkumar.cb22@bitsathy.ac.in</v>
+      </c>
+      <c r="C12" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="D12" t="str">
+        <v>HI</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D12"/>
   </ignoredErrors>
 </worksheet>
 </file>